--- a/MainTop/09.03.2025/макс с 09.02.2025 по 09.03.2025/WB_поставка_Упаковка_спрос_9-3-2025 макс с 9-2-2025 по 9-3-2025_sorted.xlsx
+++ b/MainTop/09.03.2025/макс с 09.02.2025 по 09.03.2025/WB_поставка_Упаковка_спрос_9-3-2025 макс с 9-2-2025 по 9-3-2025_sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\09.03.2025\макс с 09.02.2025 по 09.03.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49367E51-934E-4C7D-A026-96A36C29E173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4839C0-F143-4D0E-8C8E-AED83CE43293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>баркод</t>
   </si>
@@ -260,9 +260,6 @@
   </si>
   <si>
     <t>OZN1489755557</t>
-  </si>
-  <si>
-    <t>OZN1489755095</t>
   </si>
   <si>
     <t>OZN1336986249</t>
@@ -703,9 +700,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1448,14 +1447,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
